--- a/data/커리큘럼.xlsx
+++ b/data/커리큘럼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai-carpentry\kgpt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstudio/minjoo/kgpt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68D428-CC02-4FF6-BB13-C1AD4BC3E598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF342966-93BF-0144-89F9-8E0755D81AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="kgpt" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="광명시" sheetId="2" r:id="rId3"/>
     <sheet name="-" sheetId="3" r:id="rId4"/>
     <sheet name="건국대" sheetId="1" r:id="rId5"/>
+    <sheet name="kgpt_v1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>주차</t>
   </si>
@@ -329,6 +330,50 @@
     <t>프로젝트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>추론과 출판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추론과 문제풀이(수능)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체험 삶의 현장(AI)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 넷플릭스 시나리오 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서화 프로그래밍(쿼토: PDF,HTML)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 수능 국어,영어,수학,과학 등</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 시민기자 데이터 저널리즘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀, API 프로그래밍, 코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드뉴스, 쇼츠, 숏폼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR/녹취 속기록/Text-to-X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 유튜브 쇼츠 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +419,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -502,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +626,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,6 +645,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,22 +964,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE1861-9CAC-4B09-B068-787F80E13500}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4140625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -936,11 +996,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="23">
+    <row r="2" spans="1:5">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>45586</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -953,64 +1013,68 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23">
+      <c r="D4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>45602</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="23">
+      <c r="D7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>45614</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1020,220 +1084,76 @@
         <v>72</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="23">
+      <c r="D10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>45628</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23">
-        <v>5</v>
-      </c>
-      <c r="B14" s="24">
-        <v>45644</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24">
-        <v>45656</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
-        <v>7</v>
-      </c>
-      <c r="B20" s="24">
-        <v>45670</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="23">
-        <v>8</v>
-      </c>
-      <c r="B23" s="24">
-        <v>45318</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="D13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="8">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,7 +1167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,16 +1182,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4140625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1288,11 +1208,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="23">
+    <row r="2" spans="1:5">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>45163</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1305,29 +1225,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23">
+    <row r="5" spans="1:5">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>45176</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1340,29 +1260,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="23">
+    <row r="8" spans="1:5">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>45190</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1375,29 +1295,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="23">
+    <row r="11" spans="1:5">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>45211</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1410,29 +1330,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23">
+    <row r="14" spans="1:5">
+      <c r="A14" s="24">
         <v>5</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="25">
         <v>45225</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1445,29 +1365,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="23">
+    <row r="17" spans="1:5">
+      <c r="A17" s="24">
         <v>6</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>45239</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1480,29 +1400,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
+    <row r="20" spans="1:5">
+      <c r="A20" s="24">
         <v>6</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="25">
         <v>45253</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -1515,29 +1435,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="23">
+    <row r="23" spans="1:5">
+      <c r="A23" s="24">
         <v>6</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="25">
         <v>45267</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -1550,18 +1470,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>59</v>
@@ -1599,7 +1519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,16 +1534,16 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" thickTop="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,11 +1560,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+    <row r="2" spans="1:5">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45108</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1657,29 +1577,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+    <row r="5" spans="1:5">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>45115</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1692,20 +1612,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="25">
+    <row r="7" spans="1:5">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <v>45122</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1718,20 +1638,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="25">
+    <row r="9" spans="1:5">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="28">
         <v>45129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1744,29 +1664,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="25">
+    <row r="12" spans="1:5">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <v>45136</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1779,25 +1699,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1814,11 +1734,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="25">
+    <row r="16" spans="1:5">
+      <c r="A16" s="26">
         <v>6</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="28">
         <v>45150</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1831,29 +1751,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="25">
+    <row r="19" spans="1:5">
+      <c r="A19" s="26">
         <v>7</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="28">
         <v>45157</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1866,29 +1786,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="25">
+    <row r="22" spans="1:5">
+      <c r="A22" s="26">
         <v>8</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="28">
         <v>45164</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1901,18 +1821,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1942,4 +1862,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8114A911-58C8-B44A-846F-5ECB0B1782A5}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>45586</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45628</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24">
+        <v>5</v>
+      </c>
+      <c r="B14" s="25">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="24">
+        <v>6</v>
+      </c>
+      <c r="B17" s="25">
+        <v>45656</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="24">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25">
+        <v>45670</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="24">
+        <v>8</v>
+      </c>
+      <c r="B23" s="25">
+        <v>45318</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/커리큘럼.xlsx
+++ b/data/커리큘럼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstudio/minjoo/kgpt/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai-carpentry\kgpt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF342966-93BF-0144-89F9-8E0755D81AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BEE6A4-6D26-4841-B01E-05582F784F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
+    <workbookView xWindow="5750" yWindow="1480" windowWidth="20440" windowHeight="15460" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="kgpt" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>주차</t>
   </si>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>추론과 출판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>추론과 문제풀이(수능)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -343,22 +339,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>실습: 넷플릭스 시나리오 작성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>문서화 프로그래밍(쿼토: PDF,HTML)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>실습: 수능 국어,영어,수학,과학 등</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실습: 시민기자 데이터 저널리즘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>엑셀, API 프로그래밍, 코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -372,6 +356,82 @@
   </si>
   <si>
     <t>실습: 유튜브 쇼츠 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀(데이터 과학)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사례: 김병욱의원 의정설명회 동영상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사례: 경기도 지식(GSeek) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사례: 챗GPT 데이터 과학</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사례: 챗GPT 쿼토, 수능 문제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 금투세 등 정책발굴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 연설문, 논평 초안</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습: 여론조사 시민기자 데이터 저널리즘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI의 마법사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ChatGPT로 열어가는 미래 혁명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터의 연금술</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 숫자를 금으로 바꾸는 비밀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 르네상스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 추론과 창작의 경계를 넘다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기의 지능화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- AI가 펜을 들다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사례</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗GPT 시즌 2: 사무생산성 향상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>****</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +689,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,7 +710,10 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE1861-9CAC-4B09-B068-787F80E13500}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -979,7 +1045,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -996,164 +1062,232 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="24">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="26">
         <v>45586</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="20"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="D3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26">
+        <v>45602</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26">
+        <v>45614</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="25">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26">
+        <v>45628</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23" t="s">
+      <c r="E16" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24">
-        <v>4</v>
-      </c>
-      <c r="B11" s="25">
-        <v>45628</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="E17" s="24" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,7 +1301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,7 +1316,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1191,7 +1325,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1208,11 +1342,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="24">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="26">
         <v>45163</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1225,29 +1359,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="24">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>45176</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1260,29 +1394,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>45190</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1295,29 +1429,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>45211</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1330,29 +1464,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="24">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="25">
         <v>5</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>45225</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1365,29 +1499,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="24">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="25">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>45239</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1400,29 +1534,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="24">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="25">
         <v>6</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>45253</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -1435,29 +1569,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="24">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="25">
         <v>6</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>45267</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -1470,18 +1604,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>59</v>
@@ -1519,7 +1653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,7 +1668,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1543,7 +1677,7 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1">
+    <row r="1" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,11 +1694,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="26">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>45108</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1577,29 +1711,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="26">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <v>45115</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1612,20 +1746,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="26">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="29">
         <v>45122</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1638,20 +1772,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="26">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <v>45129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1664,29 +1798,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="26">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="27">
         <v>5</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="29">
         <v>45136</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1699,25 +1833,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1734,11 +1868,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="26">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="27">
         <v>6</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="29">
         <v>45150</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1751,29 +1885,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="26">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="27">
         <v>7</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="29">
         <v>45157</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1786,29 +1920,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="26">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="27">
         <v>8</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="29">
         <v>45164</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1821,18 +1955,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1841,12 +1975,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A24"/>
@@ -1857,6 +1985,12 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1872,7 +2006,7 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -1881,7 +2015,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1898,11 +2032,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="24">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="26">
         <v>45586</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1915,29 +2049,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="24">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>45602</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1950,29 +2084,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>45614</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1985,29 +2119,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>45628</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2020,29 +2154,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="24">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="25">
         <v>5</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>45644</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2055,29 +2189,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="24">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="25">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>45656</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2090,29 +2224,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="24">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>45670</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -2125,29 +2259,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="24">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="25">
         <v>8</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>45318</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2160,18 +2294,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>59</v>
@@ -2180,12 +2314,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A23:A25"/>
@@ -2196,6 +2324,12 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/커리큘럼.xlsx
+++ b/data/커리큘럼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai-carpentry\kgpt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstudio/minjoo/kgpt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BEE6A4-6D26-4841-B01E-05582F784F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50FAB08-01DE-A244-B6A3-0C3628004963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5750" yWindow="1480" windowWidth="20440" windowHeight="15460" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
+    <workbookView xWindow="5760" yWindow="1480" windowWidth="20440" windowHeight="15460" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="kgpt" sheetId="4" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +692,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,12 +714,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,10 +1033,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -1045,7 +1045,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1062,11 +1062,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>45586</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1079,10 +1079,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="31" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="25" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -1090,9 +1090,9 @@
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="20" t="s">
         <v>101</v>
       </c>
@@ -1103,9 +1103,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="20" t="s">
         <v>101</v>
       </c>
@@ -1116,119 +1116,119 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="25">
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="28">
         <v>45602</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
-        <v>94</v>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="25">
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="28">
         <v>45614</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="31" t="s">
-        <v>96</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="25">
+    <row r="14" spans="1:5">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <v>45628</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1241,10 +1241,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="32" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1252,9 +1252,9 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="20" t="s">
         <v>101</v>
       </c>
@@ -1265,9 +1265,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="20" t="s">
         <v>101</v>
       </c>
@@ -1301,7 +1301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,7 +1316,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1325,7 +1325,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1342,11 +1342,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>45163</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1359,29 +1359,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>45176</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1394,29 +1394,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="25">
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>45190</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1429,29 +1429,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="25">
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
         <v>4</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="28">
         <v>45211</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1464,29 +1464,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="25">
+    <row r="14" spans="1:5">
+      <c r="A14" s="27">
         <v>5</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <v>45225</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1499,29 +1499,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="25">
+    <row r="17" spans="1:5">
+      <c r="A17" s="27">
         <v>6</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="28">
         <v>45239</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1534,29 +1534,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="25">
+    <row r="20" spans="1:5">
+      <c r="A20" s="27">
         <v>6</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="28">
         <v>45253</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -1569,29 +1569,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="25">
+    <row r="23" spans="1:5">
+      <c r="A23" s="27">
         <v>6</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="28">
         <v>45267</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -1604,18 +1604,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>59</v>
@@ -1653,7 +1653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,7 +1668,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1677,7 +1677,7 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" thickTop="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,11 +1694,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
+    <row r="2" spans="1:5">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="31">
         <v>45108</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1711,29 +1711,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="27">
+    <row r="5" spans="1:5">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>45115</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1746,20 +1746,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="27">
+    <row r="7" spans="1:5">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="31">
         <v>45122</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1772,20 +1772,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="27">
+    <row r="9" spans="1:5">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="31">
         <v>45129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1798,29 +1798,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="27">
+    <row r="12" spans="1:5">
+      <c r="A12" s="29">
         <v>5</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>45136</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1833,25 +1833,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1868,11 +1868,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="27">
+    <row r="16" spans="1:5">
+      <c r="A16" s="29">
         <v>6</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="31">
         <v>45150</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1885,29 +1885,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="27">
+    <row r="19" spans="1:5">
+      <c r="A19" s="29">
         <v>7</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="31">
         <v>45157</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1920,29 +1920,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="27">
+    <row r="22" spans="1:5">
+      <c r="A22" s="29">
         <v>8</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="31">
         <v>45164</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1955,18 +1955,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1975,6 +1975,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A24"/>
@@ -1985,12 +1991,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2006,7 +2006,7 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -2015,7 +2015,7 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2032,11 +2032,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>45586</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2049,29 +2049,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>45602</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2084,29 +2084,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="25">
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>45614</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2119,29 +2119,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="25">
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
         <v>4</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="28">
         <v>45628</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2154,29 +2154,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="25">
+    <row r="14" spans="1:5">
+      <c r="A14" s="27">
         <v>5</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <v>45644</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2189,29 +2189,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="25">
+    <row r="17" spans="1:5">
+      <c r="A17" s="27">
         <v>6</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="28">
         <v>45656</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2224,29 +2224,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="25">
+    <row r="20" spans="1:5">
+      <c r="A20" s="27">
         <v>7</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="28">
         <v>45670</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -2259,29 +2259,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="25">
+    <row r="23" spans="1:5">
+      <c r="A23" s="27">
         <v>8</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="28">
         <v>45318</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2294,18 +2294,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>59</v>
@@ -2314,6 +2314,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A23:A25"/>
@@ -2324,12 +2330,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/커리큘럼.xlsx
+++ b/data/커리큘럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstudio/minjoo/kgpt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50FAB08-01DE-A244-B6A3-0C3628004963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564ED4D1-D5D8-8941-9F53-FA236F29DD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1480" windowWidth="20440" windowHeight="15460" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17"/>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>91</v>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="28">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>93</v>
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="28">
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>97</v>
@@ -1975,12 +1975,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A24"/>
@@ -1991,6 +1985,12 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,12 +2314,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A23:A25"/>
@@ -2330,6 +2324,12 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
